--- a/10.10.70.56/QRPGSRC_SCPLIB/QRPGSRC_SCPLIB.xlsx
+++ b/10.10.70.56/QRPGSRC_SCPLIB/QRPGSRC_SCPLIB.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\西祺\seedswine_erickao\seedswine-as400\10.10.70.56\QRPGSRC_SCPLIB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SeedsWine\SeedsWine\10.10.70.56\QRPGSRC_SCPLIB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A032DCF0-49E1-4955-86B8-9BB3602C3CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312FF733-B12F-404F-994A-53AF55E96950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1CBF88C9-DC98-4CD5-BCA0-CCFD8CBC1D4D}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$E$610</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2436" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2673" uniqueCount="958">
   <si>
     <t>BCM001</t>
   </si>
@@ -2890,6 +2893,30 @@
   </si>
   <si>
     <t>已下載</t>
+  </si>
+  <si>
+    <t>member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下載</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規格書</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2957,9 +2984,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2997,7 +3024,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3103,7 +3130,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3245,7 +3272,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3253,13 +3280,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74200E63-B1AF-4218-AFBB-0189AC6F76E8}">
-  <dimension ref="A2:D610"/>
+  <dimension ref="A1:E610"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="54.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B1" t="s">
+        <v>953</v>
+      </c>
+      <c r="C1" t="s">
+        <v>955</v>
+      </c>
+      <c r="D1" t="s">
+        <v>954</v>
+      </c>
+      <c r="E1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3273,7 +3320,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3286,8 +3333,11 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3300,8 +3350,11 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3314,8 +3367,11 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3329,7 +3385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3343,7 +3399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3356,8 +3412,11 @@
       <c r="D8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3371,7 +3430,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3384,8 +3443,11 @@
       <c r="D10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3398,8 +3460,11 @@
       <c r="D11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3413,7 +3478,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -3427,7 +3492,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -3441,7 +3506,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -3455,7 +3520,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -3469,7 +3534,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -3483,7 +3548,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3497,7 +3562,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -3510,8 +3575,11 @@
       <c r="D19" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3524,8 +3592,11 @@
       <c r="D20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -3538,8 +3609,11 @@
       <c r="D21" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -3552,8 +3626,11 @@
       <c r="D22" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -3567,7 +3644,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -3581,7 +3658,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -3595,7 +3672,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -3609,7 +3686,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -3622,8 +3699,11 @@
       <c r="D27" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -3636,8 +3716,11 @@
       <c r="D28" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -3651,7 +3734,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -3664,8 +3747,11 @@
       <c r="D30" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -3679,7 +3765,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -3692,8 +3778,11 @@
       <c r="D32" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -3706,8 +3795,11 @@
       <c r="D33" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -3721,7 +3813,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -3734,8 +3826,11 @@
       <c r="D35" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -3748,8 +3843,11 @@
       <c r="D36" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -3762,8 +3860,11 @@
       <c r="D37" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -3776,8 +3877,11 @@
       <c r="D38" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -3791,7 +3895,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -3805,7 +3909,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -3819,7 +3923,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -3833,7 +3937,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -3847,7 +3951,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -3861,7 +3965,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -3875,7 +3979,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -3889,7 +3993,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>66</v>
       </c>
@@ -3903,7 +4007,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>67</v>
       </c>
@@ -3917,7 +4021,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>68</v>
       </c>
@@ -3931,7 +4035,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -3945,7 +4049,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>78</v>
       </c>
@@ -3959,7 +4063,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>79</v>
       </c>
@@ -3972,8 +4076,11 @@
       <c r="D52" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>80</v>
       </c>
@@ -3986,8 +4093,11 @@
       <c r="D53" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>81</v>
       </c>
@@ -4000,8 +4110,11 @@
       <c r="D54" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -4014,8 +4127,11 @@
       <c r="D55" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>83</v>
       </c>
@@ -4029,7 +4145,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>84</v>
       </c>
@@ -4043,7 +4159,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>89</v>
       </c>
@@ -4057,7 +4173,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>90</v>
       </c>
@@ -4071,7 +4187,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>91</v>
       </c>
@@ -4085,7 +4201,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>92</v>
       </c>
@@ -4099,7 +4215,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>93</v>
       </c>
@@ -4113,7 +4229,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>94</v>
       </c>
@@ -4127,7 +4243,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>95</v>
       </c>
@@ -4141,7 +4257,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>96</v>
       </c>
@@ -4155,7 +4271,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>104</v>
       </c>
@@ -4168,8 +4284,11 @@
       <c r="D66" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>105</v>
       </c>
@@ -4183,7 +4302,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>106</v>
       </c>
@@ -4197,7 +4316,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>107</v>
       </c>
@@ -4211,7 +4330,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>108</v>
       </c>
@@ -4225,7 +4344,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>109</v>
       </c>
@@ -4239,7 +4358,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>110</v>
       </c>
@@ -4253,7 +4372,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>111</v>
       </c>
@@ -4267,7 +4386,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>119</v>
       </c>
@@ -4281,7 +4400,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>120</v>
       </c>
@@ -4295,7 +4414,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>121</v>
       </c>
@@ -4309,7 +4428,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>122</v>
       </c>
@@ -4322,8 +4441,11 @@
       <c r="D77" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>123</v>
       </c>
@@ -4337,7 +4459,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>124</v>
       </c>
@@ -4351,7 +4473,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>125</v>
       </c>
@@ -4365,7 +4487,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>126</v>
       </c>
@@ -4378,8 +4500,11 @@
       <c r="D81" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>133</v>
       </c>
@@ -4393,7 +4518,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>134</v>
       </c>
@@ -4407,7 +4532,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>135</v>
       </c>
@@ -4421,7 +4546,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>136</v>
       </c>
@@ -4434,8 +4559,11 @@
       <c r="D85" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>137</v>
       </c>
@@ -4449,7 +4577,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>138</v>
       </c>
@@ -4463,7 +4591,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>139</v>
       </c>
@@ -4477,7 +4605,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>140</v>
       </c>
@@ -4491,7 +4619,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>145</v>
       </c>
@@ -4505,7 +4633,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>146</v>
       </c>
@@ -4519,7 +4647,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>147</v>
       </c>
@@ -4533,7 +4661,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>148</v>
       </c>
@@ -4547,7 +4675,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>149</v>
       </c>
@@ -4561,7 +4689,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>150</v>
       </c>
@@ -4574,8 +4702,11 @@
       <c r="D95" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>151</v>
       </c>
@@ -4589,7 +4720,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>152</v>
       </c>
@@ -4602,8 +4733,11 @@
       <c r="D97" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>159</v>
       </c>
@@ -4617,7 +4751,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>160</v>
       </c>
@@ -4630,8 +4764,11 @@
       <c r="D99" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>161</v>
       </c>
@@ -4645,7 +4782,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>162</v>
       </c>
@@ -4658,8 +4795,11 @@
       <c r="D101" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>163</v>
       </c>
@@ -4673,7 +4813,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>164</v>
       </c>
@@ -4686,8 +4826,11 @@
       <c r="D103" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>165</v>
       </c>
@@ -4701,7 +4844,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>166</v>
       </c>
@@ -4714,8 +4857,11 @@
       <c r="D105" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>171</v>
       </c>
@@ -4729,7 +4875,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>172</v>
       </c>
@@ -4743,7 +4889,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>173</v>
       </c>
@@ -4757,7 +4903,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>174</v>
       </c>
@@ -4771,7 +4917,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>175</v>
       </c>
@@ -4784,8 +4930,11 @@
       <c r="D110" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>176</v>
       </c>
@@ -4799,7 +4948,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>177</v>
       </c>
@@ -4813,7 +4962,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>178</v>
       </c>
@@ -4826,8 +4975,11 @@
       <c r="D113" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>185</v>
       </c>
@@ -4840,8 +4992,11 @@
       <c r="D114" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>186</v>
       </c>
@@ -4855,7 +5010,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>187</v>
       </c>
@@ -4868,8 +5023,11 @@
       <c r="D116" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>188</v>
       </c>
@@ -4883,7 +5041,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>189</v>
       </c>
@@ -4896,8 +5054,11 @@
       <c r="D118" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>190</v>
       </c>
@@ -4911,7 +5072,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>191</v>
       </c>
@@ -4924,8 +5085,11 @@
       <c r="D120" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>192</v>
       </c>
@@ -4939,7 +5103,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>197</v>
       </c>
@@ -4952,8 +5116,11 @@
       <c r="D122" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>198</v>
       </c>
@@ -4966,8 +5133,11 @@
       <c r="D123" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>199</v>
       </c>
@@ -4981,7 +5151,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>200</v>
       </c>
@@ -4994,8 +5164,11 @@
       <c r="D125" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>201</v>
       </c>
@@ -5008,8 +5181,11 @@
       <c r="D126" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>202</v>
       </c>
@@ -5023,7 +5199,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>203</v>
       </c>
@@ -5037,7 +5213,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>204</v>
       </c>
@@ -5051,7 +5227,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>209</v>
       </c>
@@ -5065,7 +5241,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>210</v>
       </c>
@@ -5078,8 +5254,11 @@
       <c r="D131" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>211</v>
       </c>
@@ -5093,7 +5272,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>212</v>
       </c>
@@ -5107,7 +5286,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>213</v>
       </c>
@@ -5121,7 +5300,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>214</v>
       </c>
@@ -5135,7 +5314,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>215</v>
       </c>
@@ -5149,7 +5328,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>216</v>
       </c>
@@ -5162,8 +5341,11 @@
       <c r="D137" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>223</v>
       </c>
@@ -5177,7 +5359,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>224</v>
       </c>
@@ -5190,8 +5372,11 @@
       <c r="D139" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>225</v>
       </c>
@@ -5205,7 +5390,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>226</v>
       </c>
@@ -5219,7 +5404,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>227</v>
       </c>
@@ -5233,7 +5418,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>228</v>
       </c>
@@ -5246,8 +5431,11 @@
       <c r="D143" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>229</v>
       </c>
@@ -5261,7 +5449,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>230</v>
       </c>
@@ -5275,7 +5463,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>236</v>
       </c>
@@ -5288,8 +5476,11 @@
       <c r="D146" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>237</v>
       </c>
@@ -5303,7 +5494,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>238</v>
       </c>
@@ -5316,8 +5507,11 @@
       <c r="D148" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>239</v>
       </c>
@@ -5331,7 +5525,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>240</v>
       </c>
@@ -5344,8 +5538,11 @@
       <c r="D150" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>241</v>
       </c>
@@ -5359,7 +5556,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>242</v>
       </c>
@@ -5373,7 +5570,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>243</v>
       </c>
@@ -5386,8 +5583,11 @@
       <c r="D153" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>248</v>
       </c>
@@ -5401,7 +5601,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>249</v>
       </c>
@@ -5414,8 +5614,11 @@
       <c r="D155" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>250</v>
       </c>
@@ -5428,8 +5631,11 @@
       <c r="D156" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>251</v>
       </c>
@@ -5442,8 +5648,11 @@
       <c r="D157" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>252</v>
       </c>
@@ -5456,8 +5665,11 @@
       <c r="D158" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>253</v>
       </c>
@@ -5470,8 +5682,11 @@
       <c r="D159" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>254</v>
       </c>
@@ -5485,7 +5700,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>255</v>
       </c>
@@ -5499,7 +5714,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>259</v>
       </c>
@@ -5513,7 +5728,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>260</v>
       </c>
@@ -5527,7 +5742,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>261</v>
       </c>
@@ -5541,7 +5756,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>262</v>
       </c>
@@ -5554,8 +5769,11 @@
       <c r="D165" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E165" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>263</v>
       </c>
@@ -5568,8 +5786,11 @@
       <c r="D166" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>264</v>
       </c>
@@ -5582,8 +5803,11 @@
       <c r="D167" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>265</v>
       </c>
@@ -5596,8 +5820,11 @@
       <c r="D168" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>266</v>
       </c>
@@ -5610,8 +5837,11 @@
       <c r="D169" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>270</v>
       </c>
@@ -5624,8 +5854,11 @@
       <c r="D170" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>271</v>
       </c>
@@ -5638,8 +5871,11 @@
       <c r="D171" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>272</v>
       </c>
@@ -5652,8 +5888,11 @@
       <c r="D172" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E172" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>273</v>
       </c>
@@ -5666,8 +5905,11 @@
       <c r="D173" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>274</v>
       </c>
@@ -5681,7 +5923,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>275</v>
       </c>
@@ -5695,7 +5937,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>276</v>
       </c>
@@ -5708,8 +5950,11 @@
       <c r="D176" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>277</v>
       </c>
@@ -5722,8 +5967,11 @@
       <c r="D177" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>279</v>
       </c>
@@ -5737,7 +5985,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>280</v>
       </c>
@@ -5751,7 +5999,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>281</v>
       </c>
@@ -5765,7 +6013,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>282</v>
       </c>
@@ -5778,8 +6026,11 @@
       <c r="D181" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>283</v>
       </c>
@@ -5793,7 +6044,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>284</v>
       </c>
@@ -5807,7 +6058,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>285</v>
       </c>
@@ -5821,7 +6072,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>286</v>
       </c>
@@ -5835,7 +6086,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>294</v>
       </c>
@@ -5849,7 +6100,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>295</v>
       </c>
@@ -5863,7 +6114,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>296</v>
       </c>
@@ -5876,8 +6127,11 @@
       <c r="D188" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>297</v>
       </c>
@@ -5890,8 +6144,11 @@
       <c r="D189" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>298</v>
       </c>
@@ -5905,7 +6162,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>299</v>
       </c>
@@ -5919,7 +6176,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>300</v>
       </c>
@@ -5933,7 +6190,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>301</v>
       </c>
@@ -5947,7 +6204,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>308</v>
       </c>
@@ -5961,7 +6218,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>309</v>
       </c>
@@ -5975,7 +6232,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>310</v>
       </c>
@@ -5988,8 +6245,11 @@
       <c r="D196" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E196" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>311</v>
       </c>
@@ -6003,7 +6263,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>312</v>
       </c>
@@ -6017,7 +6277,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>313</v>
       </c>
@@ -6031,7 +6291,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>314</v>
       </c>
@@ -6045,7 +6305,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>315</v>
       </c>
@@ -6059,7 +6319,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>323</v>
       </c>
@@ -6072,8 +6332,11 @@
       <c r="D202" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E202" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>324</v>
       </c>
@@ -6087,7 +6350,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>325</v>
       </c>
@@ -6101,7 +6364,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>326</v>
       </c>
@@ -6114,8 +6377,11 @@
       <c r="D205" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E205" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>327</v>
       </c>
@@ -6129,7 +6395,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>328</v>
       </c>
@@ -6143,7 +6409,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>329</v>
       </c>
@@ -6157,7 +6423,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>330</v>
       </c>
@@ -6170,8 +6436,11 @@
       <c r="D209" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E209" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>336</v>
       </c>
@@ -6184,8 +6453,11 @@
       <c r="D210" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E210" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>337</v>
       </c>
@@ -6198,8 +6470,11 @@
       <c r="D211" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E211" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>338</v>
       </c>
@@ -6212,8 +6487,11 @@
       <c r="D212" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E212" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>339</v>
       </c>
@@ -6226,8 +6504,11 @@
       <c r="D213" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E213" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>340</v>
       </c>
@@ -6241,7 +6522,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>341</v>
       </c>
@@ -6254,8 +6535,11 @@
       <c r="D215" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E215" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>342</v>
       </c>
@@ -6268,8 +6552,11 @@
       <c r="D216" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E216" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>343</v>
       </c>
@@ -6282,8 +6569,11 @@
       <c r="D217" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E217" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>345</v>
       </c>
@@ -6297,7 +6587,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>346</v>
       </c>
@@ -6311,7 +6601,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>347</v>
       </c>
@@ -6324,8 +6614,11 @@
       <c r="D220" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E220" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>348</v>
       </c>
@@ -6338,8 +6631,11 @@
       <c r="D221" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E221" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>349</v>
       </c>
@@ -6353,7 +6649,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>350</v>
       </c>
@@ -6367,7 +6663,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>351</v>
       </c>
@@ -6381,7 +6677,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>352</v>
       </c>
@@ -6394,8 +6690,11 @@
       <c r="D225" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E225" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>358</v>
       </c>
@@ -6408,8 +6707,11 @@
       <c r="D226" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E226" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>359</v>
       </c>
@@ -6423,7 +6725,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>360</v>
       </c>
@@ -6437,7 +6739,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>361</v>
       </c>
@@ -6451,7 +6753,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>362</v>
       </c>
@@ -6464,8 +6766,11 @@
       <c r="D230" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E230" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>363</v>
       </c>
@@ -6479,7 +6784,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>364</v>
       </c>
@@ -6493,7 +6798,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>365</v>
       </c>
@@ -6506,8 +6811,11 @@
       <c r="D233" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E233" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>370</v>
       </c>
@@ -6521,7 +6829,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>371</v>
       </c>
@@ -6535,7 +6843,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>372</v>
       </c>
@@ -6549,7 +6857,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>373</v>
       </c>
@@ -6562,8 +6870,11 @@
       <c r="D237" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E237" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>374</v>
       </c>
@@ -6577,7 +6888,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>375</v>
       </c>
@@ -6590,8 +6901,11 @@
       <c r="D239" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E239" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>376</v>
       </c>
@@ -6605,7 +6919,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>377</v>
       </c>
@@ -6619,7 +6933,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>384</v>
       </c>
@@ -6633,7 +6947,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>385</v>
       </c>
@@ -6646,8 +6960,11 @@
       <c r="D243" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E243" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>386</v>
       </c>
@@ -6661,7 +6978,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>387</v>
       </c>
@@ -6675,7 +6992,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>388</v>
       </c>
@@ -6689,7 +7006,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>389</v>
       </c>
@@ -6703,7 +7020,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>390</v>
       </c>
@@ -6717,7 +7034,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>391</v>
       </c>
@@ -6731,7 +7048,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>399</v>
       </c>
@@ -6745,7 +7062,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>400</v>
       </c>
@@ -6758,8 +7075,11 @@
       <c r="D251" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E251" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>401</v>
       </c>
@@ -6772,8 +7092,11 @@
       <c r="D252" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E252" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>402</v>
       </c>
@@ -6786,8 +7109,11 @@
       <c r="D253" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E253" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>403</v>
       </c>
@@ -6800,8 +7126,11 @@
       <c r="D254" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E254" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>404</v>
       </c>
@@ -6815,7 +7144,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>405</v>
       </c>
@@ -6828,8 +7157,11 @@
       <c r="D256" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E256" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>406</v>
       </c>
@@ -6843,7 +7175,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>409</v>
       </c>
@@ -6857,7 +7189,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>410</v>
       </c>
@@ -6870,8 +7202,11 @@
       <c r="D259" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E259" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>411</v>
       </c>
@@ -6884,8 +7219,11 @@
       <c r="D260" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E260" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>412</v>
       </c>
@@ -6898,8 +7236,11 @@
       <c r="D261" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E261" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>413</v>
       </c>
@@ -6913,7 +7254,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>414</v>
       </c>
@@ -6926,8 +7267,11 @@
       <c r="D263" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E263" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>415</v>
       </c>
@@ -6941,7 +7285,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>416</v>
       </c>
@@ -6954,8 +7298,11 @@
       <c r="D265" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E265" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>420</v>
       </c>
@@ -6968,8 +7315,11 @@
       <c r="D266" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E266" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>421</v>
       </c>
@@ -6982,8 +7332,11 @@
       <c r="D267" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E267" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>422</v>
       </c>
@@ -6997,7 +7350,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>423</v>
       </c>
@@ -7010,8 +7363,11 @@
       <c r="D269" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E269" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>424</v>
       </c>
@@ -7025,7 +7381,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>425</v>
       </c>
@@ -7038,8 +7394,11 @@
       <c r="D271" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E271" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>426</v>
       </c>
@@ -7053,7 +7412,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>427</v>
       </c>
@@ -7066,8 +7425,11 @@
       <c r="D273" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E273" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>431</v>
       </c>
@@ -7081,7 +7443,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>432</v>
       </c>
@@ -7094,8 +7456,11 @@
       <c r="D275" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E275" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>433</v>
       </c>
@@ -7108,8 +7473,11 @@
       <c r="D276" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E276" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>434</v>
       </c>
@@ -7122,8 +7490,11 @@
       <c r="D277" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E277" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>435</v>
       </c>
@@ -7137,7 +7508,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>436</v>
       </c>
@@ -7150,8 +7521,11 @@
       <c r="D279" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E279" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>437</v>
       </c>
@@ -7164,8 +7538,11 @@
       <c r="D280" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E280" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>438</v>
       </c>
@@ -7178,8 +7555,11 @@
       <c r="D281" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E281" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>441</v>
       </c>
@@ -7193,7 +7573,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>442</v>
       </c>
@@ -7206,8 +7586,11 @@
       <c r="D283" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E283" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>443</v>
       </c>
@@ -7220,8 +7603,11 @@
       <c r="D284" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E284" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>444</v>
       </c>
@@ -7234,8 +7620,11 @@
       <c r="D285" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E285" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>445</v>
       </c>
@@ -7249,7 +7638,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>446</v>
       </c>
@@ -7263,7 +7652,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>447</v>
       </c>
@@ -7276,8 +7665,11 @@
       <c r="D288" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E288" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>448</v>
       </c>
@@ -7290,8 +7682,11 @@
       <c r="D289" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E289" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>452</v>
       </c>
@@ -7305,7 +7700,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>453</v>
       </c>
@@ -7318,8 +7713,11 @@
       <c r="D291" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E291" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>454</v>
       </c>
@@ -7332,8 +7730,11 @@
       <c r="D292" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E292" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>455</v>
       </c>
@@ -7347,7 +7748,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>456</v>
       </c>
@@ -7361,7 +7762,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>457</v>
       </c>
@@ -7374,8 +7775,11 @@
       <c r="D295" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E295" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>458</v>
       </c>
@@ -7389,7 +7793,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>459</v>
       </c>
@@ -7402,8 +7806,11 @@
       <c r="D297" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E297" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>464</v>
       </c>
@@ -7417,7 +7824,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>465</v>
       </c>
@@ -7430,8 +7837,11 @@
       <c r="D299" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E299" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>466</v>
       </c>
@@ -7445,7 +7855,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>467</v>
       </c>
@@ -7459,7 +7869,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>468</v>
       </c>
@@ -7473,7 +7883,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>469</v>
       </c>
@@ -7487,7 +7897,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>470</v>
       </c>
@@ -7501,7 +7911,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>471</v>
       </c>
@@ -7515,7 +7925,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>479</v>
       </c>
@@ -7529,7 +7939,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>480</v>
       </c>
@@ -7543,7 +7953,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>481</v>
       </c>
@@ -7557,7 +7967,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>482</v>
       </c>
@@ -7571,7 +7981,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>483</v>
       </c>
@@ -7585,7 +7995,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>484</v>
       </c>
@@ -7599,7 +8009,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>485</v>
       </c>
@@ -7612,8 +8022,11 @@
       <c r="D312" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E312" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>486</v>
       </c>
@@ -7627,7 +8040,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>494</v>
       </c>
@@ -7641,7 +8054,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>495</v>
       </c>
@@ -7654,8 +8067,11 @@
       <c r="D315" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E315" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>496</v>
       </c>
@@ -7668,8 +8084,11 @@
       <c r="D316" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E316" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>497</v>
       </c>
@@ -7682,8 +8101,11 @@
       <c r="D317" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E317" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>498</v>
       </c>
@@ -7696,8 +8118,11 @@
       <c r="D318" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E318" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>499</v>
       </c>
@@ -7710,8 +8135,11 @@
       <c r="D319" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E319" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>500</v>
       </c>
@@ -7725,7 +8153,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>501</v>
       </c>
@@ -7739,7 +8167,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>504</v>
       </c>
@@ -7753,7 +8181,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>505</v>
       </c>
@@ -7767,7 +8195,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>506</v>
       </c>
@@ -7781,7 +8209,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>507</v>
       </c>
@@ -7794,8 +8222,11 @@
       <c r="D325" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E325" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>508</v>
       </c>
@@ -7808,8 +8239,11 @@
       <c r="D326" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E326" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>509</v>
       </c>
@@ -7822,8 +8256,11 @@
       <c r="D327" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E327" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>510</v>
       </c>
@@ -7836,8 +8273,11 @@
       <c r="D328" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E328" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>511</v>
       </c>
@@ -7851,7 +8291,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>515</v>
       </c>
@@ -7865,7 +8305,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>516</v>
       </c>
@@ -7879,7 +8319,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>517</v>
       </c>
@@ -7893,7 +8333,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>518</v>
       </c>
@@ -7907,7 +8347,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>519</v>
       </c>
@@ -7921,7 +8361,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>520</v>
       </c>
@@ -7935,7 +8375,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>521</v>
       </c>
@@ -7949,7 +8389,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>522</v>
       </c>
@@ -7963,7 +8403,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>531</v>
       </c>
@@ -7977,7 +8417,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>532</v>
       </c>
@@ -7991,7 +8431,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>533</v>
       </c>
@@ -8005,7 +8445,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>534</v>
       </c>
@@ -8018,8 +8458,11 @@
       <c r="D341" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E341" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>535</v>
       </c>
@@ -8033,7 +8476,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>536</v>
       </c>
@@ -8047,7 +8490,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>537</v>
       </c>
@@ -8061,7 +8504,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>538</v>
       </c>
@@ -8074,8 +8517,11 @@
       <c r="D345" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E345" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>545</v>
       </c>
@@ -8089,7 +8535,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>546</v>
       </c>
@@ -8102,8 +8548,11 @@
       <c r="D347" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E347" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>547</v>
       </c>
@@ -8116,8 +8565,11 @@
       <c r="D348" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E348" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>548</v>
       </c>
@@ -8131,7 +8583,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>549</v>
       </c>
@@ -8145,7 +8597,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>550</v>
       </c>
@@ -8159,7 +8611,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>551</v>
       </c>
@@ -8172,8 +8624,11 @@
       <c r="D352" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E352" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>552</v>
       </c>
@@ -8186,8 +8641,11 @@
       <c r="D353" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E353" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>557</v>
       </c>
@@ -8201,7 +8659,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>558</v>
       </c>
@@ -8215,7 +8673,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>559</v>
       </c>
@@ -8229,7 +8687,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>560</v>
       </c>
@@ -8243,7 +8701,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>561</v>
       </c>
@@ -8257,7 +8715,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>562</v>
       </c>
@@ -8270,8 +8728,11 @@
       <c r="D359" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E359" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>563</v>
       </c>
@@ -8285,7 +8746,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>564</v>
       </c>
@@ -8299,7 +8760,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>570</v>
       </c>
@@ -8313,7 +8774,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>571</v>
       </c>
@@ -8326,8 +8787,11 @@
       <c r="D363" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E363" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>572</v>
       </c>
@@ -8340,8 +8804,11 @@
       <c r="D364" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E364" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>573</v>
       </c>
@@ -8354,8 +8821,11 @@
       <c r="D365" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E365" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>574</v>
       </c>
@@ -8368,8 +8838,11 @@
       <c r="D366" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E366" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>575</v>
       </c>
@@ -8382,8 +8855,11 @@
       <c r="D367" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E367" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>576</v>
       </c>
@@ -8396,8 +8872,11 @@
       <c r="D368" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E368" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>577</v>
       </c>
@@ -8410,8 +8889,11 @@
       <c r="D369" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E369" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>579</v>
       </c>
@@ -8424,8 +8906,11 @@
       <c r="D370" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E370" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>580</v>
       </c>
@@ -8438,8 +8923,11 @@
       <c r="D371" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E371" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>581</v>
       </c>
@@ -8453,7 +8941,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>582</v>
       </c>
@@ -8466,8 +8954,11 @@
       <c r="D373" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E373" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>583</v>
       </c>
@@ -8480,8 +8971,11 @@
       <c r="D374" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E374" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>584</v>
       </c>
@@ -8494,8 +8988,11 @@
       <c r="D375" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E375" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>585</v>
       </c>
@@ -8508,8 +9005,11 @@
       <c r="D376" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E376" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>586</v>
       </c>
@@ -8522,8 +9022,11 @@
       <c r="D377" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E377" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>588</v>
       </c>
@@ -8537,7 +9040,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>589</v>
       </c>
@@ -8550,8 +9053,11 @@
       <c r="D379" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E379" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>590</v>
       </c>
@@ -8564,8 +9070,11 @@
       <c r="D380" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E380" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>591</v>
       </c>
@@ -8578,8 +9087,11 @@
       <c r="D381" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E381" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>592</v>
       </c>
@@ -8592,8 +9104,11 @@
       <c r="D382" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E382" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>593</v>
       </c>
@@ -8606,8 +9121,11 @@
       <c r="D383" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E383" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>594</v>
       </c>
@@ -8621,7 +9139,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>595</v>
       </c>
@@ -8634,8 +9152,11 @@
       <c r="D385" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E385" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>598</v>
       </c>
@@ -8649,7 +9170,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>599</v>
       </c>
@@ -8663,7 +9184,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>600</v>
       </c>
@@ -8677,7 +9198,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>601</v>
       </c>
@@ -8690,8 +9211,11 @@
       <c r="D389" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E389" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>602</v>
       </c>
@@ -8705,7 +9229,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>603</v>
       </c>
@@ -8718,8 +9242,11 @@
       <c r="D391" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E391" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>604</v>
       </c>
@@ -8732,8 +9259,11 @@
       <c r="D392" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E392" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>605</v>
       </c>
@@ -8747,7 +9277,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>609</v>
       </c>
@@ -8760,8 +9290,11 @@
       <c r="D394" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E394" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>610</v>
       </c>
@@ -8775,7 +9308,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>611</v>
       </c>
@@ -8789,7 +9322,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>612</v>
       </c>
@@ -8803,7 +9336,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>613</v>
       </c>
@@ -8817,7 +9350,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>614</v>
       </c>
@@ -8831,7 +9364,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>615</v>
       </c>
@@ -8844,8 +9377,11 @@
       <c r="D400" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E400" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>616</v>
       </c>
@@ -8858,8 +9394,11 @@
       <c r="D401" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E401" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>622</v>
       </c>
@@ -8873,7 +9412,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>623</v>
       </c>
@@ -8886,8 +9425,11 @@
       <c r="D403" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E403" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>624</v>
       </c>
@@ -8901,7 +9443,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>625</v>
       </c>
@@ -8914,8 +9456,11 @@
       <c r="D405" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E405" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>626</v>
       </c>
@@ -8929,7 +9474,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>627</v>
       </c>
@@ -8943,7 +9488,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>628</v>
       </c>
@@ -8957,7 +9502,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>629</v>
       </c>
@@ -8971,7 +9516,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>636</v>
       </c>
@@ -8985,7 +9530,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>637</v>
       </c>
@@ -8999,7 +9544,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>638</v>
       </c>
@@ -9013,7 +9558,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>639</v>
       </c>
@@ -9026,8 +9571,11 @@
       <c r="D413" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E413" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>640</v>
       </c>
@@ -9040,8 +9588,11 @@
       <c r="D414" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E414" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>641</v>
       </c>
@@ -9055,7 +9606,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>642</v>
       </c>
@@ -9069,7 +9620,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>643</v>
       </c>
@@ -9083,7 +9634,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>648</v>
       </c>
@@ -9096,8 +9647,11 @@
       <c r="D418" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E418" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>649</v>
       </c>
@@ -9110,8 +9664,11 @@
       <c r="D419" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E419" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>650</v>
       </c>
@@ -9124,8 +9681,11 @@
       <c r="D420" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E420" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>651</v>
       </c>
@@ -9138,8 +9698,11 @@
       <c r="D421" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E421" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>652</v>
       </c>
@@ -9152,8 +9715,11 @@
       <c r="D422" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E422" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>653</v>
       </c>
@@ -9166,8 +9732,11 @@
       <c r="D423" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E423" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>654</v>
       </c>
@@ -9180,8 +9749,11 @@
       <c r="D424" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E424" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>655</v>
       </c>
@@ -9194,8 +9766,11 @@
       <c r="D425" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E425" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>657</v>
       </c>
@@ -9209,7 +9784,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>658</v>
       </c>
@@ -9222,8 +9797,11 @@
       <c r="D427" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E427" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>659</v>
       </c>
@@ -9237,7 +9815,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>660</v>
       </c>
@@ -9251,7 +9829,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>661</v>
       </c>
@@ -9264,8 +9842,11 @@
       <c r="D430" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E430" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>662</v>
       </c>
@@ -9278,8 +9859,11 @@
       <c r="D431" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E431" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>663</v>
       </c>
@@ -9293,7 +9877,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>664</v>
       </c>
@@ -9307,7 +9891,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>667</v>
       </c>
@@ -9321,7 +9905,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>668</v>
       </c>
@@ -9334,8 +9918,11 @@
       <c r="D435" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E435" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>669</v>
       </c>
@@ -9349,7 +9936,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>670</v>
       </c>
@@ -9363,7 +9950,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>671</v>
       </c>
@@ -9377,7 +9964,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>672</v>
       </c>
@@ -9391,7 +9978,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>673</v>
       </c>
@@ -9404,8 +9991,11 @@
       <c r="D440" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E440" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>674</v>
       </c>
@@ -9418,8 +10008,11 @@
       <c r="D441" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E441" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>682</v>
       </c>
@@ -9432,8 +10025,11 @@
       <c r="D442" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E442" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>683</v>
       </c>
@@ -9446,8 +10042,11 @@
       <c r="D443" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E443" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>684</v>
       </c>
@@ -9460,8 +10059,11 @@
       <c r="D444" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E444" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>685</v>
       </c>
@@ -9475,7 +10077,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>686</v>
       </c>
@@ -9489,7 +10091,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>687</v>
       </c>
@@ -9502,8 +10104,11 @@
       <c r="D447" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E447" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>688</v>
       </c>
@@ -9517,7 +10122,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>689</v>
       </c>
@@ -9531,7 +10136,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>692</v>
       </c>
@@ -9545,7 +10150,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>693</v>
       </c>
@@ -9559,7 +10164,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>694</v>
       </c>
@@ -9573,7 +10178,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>695</v>
       </c>
@@ -9587,7 +10192,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>696</v>
       </c>
@@ -9601,7 +10206,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>697</v>
       </c>
@@ -9615,7 +10220,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>698</v>
       </c>
@@ -9629,7 +10234,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>699</v>
       </c>
@@ -9643,7 +10248,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>706</v>
       </c>
@@ -9657,7 +10262,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>707</v>
       </c>
@@ -9671,7 +10276,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>708</v>
       </c>
@@ -9684,8 +10289,11 @@
       <c r="D460" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E460" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>709</v>
       </c>
@@ -9698,8 +10306,11 @@
       <c r="D461" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E461" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>710</v>
       </c>
@@ -9713,7 +10324,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>711</v>
       </c>
@@ -9726,8 +10337,11 @@
       <c r="D463" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E463" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>712</v>
       </c>
@@ -9965,7 +10579,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>742</v>
       </c>
@@ -9979,7 +10593,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>749</v>
       </c>
@@ -9993,7 +10607,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>750</v>
       </c>
@@ -10007,7 +10621,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>751</v>
       </c>
@@ -10021,7 +10635,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>752</v>
       </c>
@@ -10035,7 +10649,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>753</v>
       </c>
@@ -10048,8 +10662,11 @@
       <c r="D486" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E486" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>754</v>
       </c>
@@ -10062,8 +10679,11 @@
       <c r="D487" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E487" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>755</v>
       </c>
@@ -10077,7 +10697,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>756</v>
       </c>
@@ -10091,7 +10711,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>763</v>
       </c>
@@ -10105,7 +10725,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>764</v>
       </c>
@@ -10119,7 +10739,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>765</v>
       </c>
@@ -10133,7 +10753,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>766</v>
       </c>
@@ -10147,7 +10767,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>767</v>
       </c>
@@ -10161,7 +10781,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>768</v>
       </c>
@@ -10175,7 +10795,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>769</v>
       </c>
@@ -10189,7 +10809,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>770</v>
       </c>
@@ -10203,7 +10823,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>775</v>
       </c>
@@ -10216,8 +10836,11 @@
       <c r="D498" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E498" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>776</v>
       </c>
@@ -10231,7 +10854,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>777</v>
       </c>
@@ -10244,8 +10867,11 @@
       <c r="D500" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E500" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>778</v>
       </c>
@@ -10258,8 +10884,11 @@
       <c r="D501" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E501" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>779</v>
       </c>
@@ -10273,7 +10902,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>780</v>
       </c>
@@ -10286,8 +10915,11 @@
       <c r="D503" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E503" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>781</v>
       </c>
@@ -10301,7 +10933,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>782</v>
       </c>
@@ -10314,8 +10946,11 @@
       <c r="D505" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E505" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>784</v>
       </c>
@@ -10329,7 +10964,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>785</v>
       </c>
@@ -10342,8 +10977,11 @@
       <c r="D507" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E507" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>786</v>
       </c>
@@ -10356,8 +10994,11 @@
       <c r="D508" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E508" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>787</v>
       </c>
@@ -10371,7 +11012,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>788</v>
       </c>
@@ -10384,8 +11025,11 @@
       <c r="D510" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E510" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>789</v>
       </c>
@@ -10398,8 +11042,11 @@
       <c r="D511" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E511" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>790</v>
       </c>
@@ -10413,7 +11060,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>791</v>
       </c>
@@ -10426,8 +11073,11 @@
       <c r="D513" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E513" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>794</v>
       </c>
@@ -10440,8 +11090,11 @@
       <c r="D514" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E514" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>795</v>
       </c>
@@ -10454,8 +11107,11 @@
       <c r="D515" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E515" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>796</v>
       </c>
@@ -10469,7 +11125,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>797</v>
       </c>
@@ -10482,8 +11138,11 @@
       <c r="D517" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E517" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>798</v>
       </c>
@@ -10497,7 +11156,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>799</v>
       </c>
@@ -10511,7 +11170,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>800</v>
       </c>
@@ -10525,7 +11184,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>801</v>
       </c>
@@ -10539,7 +11198,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>807</v>
       </c>
@@ -10553,7 +11212,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>808</v>
       </c>
@@ -10567,7 +11226,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>809</v>
       </c>
@@ -10581,7 +11240,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>810</v>
       </c>
@@ -10595,7 +11254,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>811</v>
       </c>
@@ -10609,7 +11268,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>812</v>
       </c>
@@ -10623,7 +11282,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>813</v>
       </c>
@@ -10637,7 +11296,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>814</v>
       </c>
@@ -10651,7 +11310,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>823</v>
       </c>
@@ -10665,7 +11324,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>824</v>
       </c>
@@ -10679,7 +11338,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>825</v>
       </c>
@@ -10693,7 +11352,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>826</v>
       </c>
@@ -10707,7 +11366,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>827</v>
       </c>
@@ -10721,7 +11380,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>828</v>
       </c>
@@ -10735,7 +11394,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>829</v>
       </c>
@@ -10749,7 +11408,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>830</v>
       </c>
@@ -10763,7 +11422,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>837</v>
       </c>
@@ -10777,7 +11436,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>838</v>
       </c>
@@ -10791,7 +11450,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>839</v>
       </c>
@@ -10805,7 +11464,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>840</v>
       </c>
@@ -10819,7 +11478,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>841</v>
       </c>
@@ -10833,7 +11492,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>842</v>
       </c>
@@ -10846,8 +11505,11 @@
       <c r="D543" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E543" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>843</v>
       </c>
@@ -10860,8 +11522,11 @@
       <c r="D544" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E544" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>844</v>
       </c>
@@ -10874,8 +11539,11 @@
       <c r="D545" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E545" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>850</v>
       </c>
@@ -10888,8 +11556,11 @@
       <c r="D546" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E546" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>851</v>
       </c>
@@ -10903,7 +11574,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>852</v>
       </c>
@@ -10917,7 +11588,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>853</v>
       </c>
@@ -10931,7 +11602,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>854</v>
       </c>
@@ -10945,7 +11616,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>855</v>
       </c>
@@ -10959,7 +11630,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>856</v>
       </c>
@@ -10973,7 +11644,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>857</v>
       </c>
@@ -10987,7 +11658,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>864</v>
       </c>
@@ -11001,7 +11672,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>865</v>
       </c>
@@ -11015,7 +11686,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>866</v>
       </c>
@@ -11029,7 +11700,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>867</v>
       </c>
@@ -11043,7 +11714,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>868</v>
       </c>
@@ -11057,7 +11728,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>869</v>
       </c>
@@ -11071,7 +11742,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>870</v>
       </c>
@@ -11085,7 +11756,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>871</v>
       </c>
@@ -11099,7 +11770,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>880</v>
       </c>
@@ -11113,7 +11784,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>881</v>
       </c>
@@ -11127,7 +11798,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>882</v>
       </c>
@@ -11141,7 +11812,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>883</v>
       </c>
@@ -11155,7 +11826,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>884</v>
       </c>
@@ -11168,8 +11839,11 @@
       <c r="D566" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E566" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>885</v>
       </c>
@@ -11182,8 +11856,11 @@
       <c r="D567" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E567" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>886</v>
       </c>
@@ -11196,8 +11873,11 @@
       <c r="D568" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E568" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>887</v>
       </c>
@@ -11211,7 +11891,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>892</v>
       </c>
@@ -11225,7 +11905,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>893</v>
       </c>
@@ -11238,8 +11918,11 @@
       <c r="D571" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E571" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>894</v>
       </c>
@@ -11253,7 +11936,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>895</v>
       </c>
@@ -11267,7 +11950,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>896</v>
       </c>
@@ -11280,8 +11963,11 @@
       <c r="D574" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E574" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>897</v>
       </c>
@@ -11295,7 +11981,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>898</v>
       </c>
@@ -11309,7 +11995,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>899</v>
       </c>
@@ -11322,8 +12008,11 @@
       <c r="D577" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E577" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>902</v>
       </c>
@@ -11337,7 +12026,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>903</v>
       </c>
@@ -11351,7 +12040,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>904</v>
       </c>
@@ -11364,8 +12053,11 @@
       <c r="D580" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E580" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>905</v>
       </c>
@@ -11379,7 +12071,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>906</v>
       </c>
@@ -11393,7 +12085,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>907</v>
       </c>
@@ -11406,8 +12098,11 @@
       <c r="D583" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E583" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>908</v>
       </c>
@@ -11420,8 +12115,11 @@
       <c r="D584" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E584" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>909</v>
       </c>
@@ -11435,7 +12133,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>916</v>
       </c>
@@ -11448,8 +12146,11 @@
       <c r="D586" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E586" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>917</v>
       </c>
@@ -11462,8 +12163,11 @@
       <c r="D587" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E587" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>918</v>
       </c>
@@ -11476,8 +12180,11 @@
       <c r="D588" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E588" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>919</v>
       </c>
@@ -11491,7 +12198,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>920</v>
       </c>
@@ -11504,8 +12211,11 @@
       <c r="D590" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E590" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>921</v>
       </c>
@@ -11518,8 +12228,11 @@
       <c r="D591" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E591" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>922</v>
       </c>
@@ -11533,7 +12246,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>923</v>
       </c>
@@ -11546,8 +12259,11 @@
       <c r="D593" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E593" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>926</v>
       </c>
@@ -11560,8 +12276,11 @@
       <c r="D594" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E594" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>927</v>
       </c>
@@ -11574,8 +12293,11 @@
       <c r="D595" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E595" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>928</v>
       </c>
@@ -11589,7 +12311,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>929</v>
       </c>
@@ -11602,8 +12324,11 @@
       <c r="D597" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E597" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>930</v>
       </c>
@@ -11617,7 +12342,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>931</v>
       </c>
@@ -11630,8 +12355,11 @@
       <c r="D599" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E599" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>932</v>
       </c>
@@ -11645,7 +12373,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>933</v>
       </c>
@@ -11658,8 +12386,11 @@
       <c r="D601" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E601" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>937</v>
       </c>
@@ -11673,7 +12404,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>938</v>
       </c>
@@ -11687,7 +12418,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>939</v>
       </c>
@@ -11700,8 +12431,11 @@
       <c r="D604" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E604" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>940</v>
       </c>
@@ -11714,8 +12448,11 @@
       <c r="D605" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E605" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>941</v>
       </c>
@@ -11729,7 +12466,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>942</v>
       </c>
@@ -11743,7 +12480,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>943</v>
       </c>
@@ -11756,8 +12493,11 @@
       <c r="D608" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E608" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>944</v>
       </c>
@@ -11770,8 +12510,11 @@
       <c r="D609" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E609" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>950</v>
       </c>
@@ -11786,6 +12529,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E610" xr:uid="{74200E63-B1AF-4218-AFBB-0189AC6F76E8}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
